--- a/data/trans_orig/Q4501-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4501-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F33FBE2-5C3E-471A-9E86-3EF0A5B258EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14622255-DC5A-4062-A9BF-9EC02FC6BE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD855A09-4CFA-4483-B62E-4B7EA321B4B1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA33F23B-0347-408E-883A-7AF989D21A13}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2990,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D8C048-E01F-46AC-8185-444920C89123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B168B0E4-08B4-46C0-B222-5AA67ED264F9}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4286,7 +4286,7 @@
         <v>1647</v>
       </c>
       <c r="D27" s="7">
-        <v>1691504</v>
+        <v>1691505</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>102</v>
@@ -5361,7 +5361,7 @@
         <v>169</v>
       </c>
       <c r="D48" s="7">
-        <v>177635</v>
+        <v>177634</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>61</v>
@@ -5514,7 +5514,7 @@
         <v>3211</v>
       </c>
       <c r="D51" s="7">
-        <v>3273740</v>
+        <v>3273739</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>102</v>
@@ -5577,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB0E831-0D62-44E0-95E1-5D94C311470C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E735E2C-588D-40C3-AFE7-03376312D055}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8164,7 +8164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033D161D-5ECA-463A-B556-E27E1609A161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146A3ED-F839-49E4-A6B2-BB3DB3ADBFDD}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8657,7 +8657,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>23513</v>
+        <v>23512</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>122</v>
@@ -8810,7 +8810,7 @@
         <v>372</v>
       </c>
       <c r="I14" s="7">
-        <v>422741</v>
+        <v>422740</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>672</v>
@@ -8861,7 +8861,7 @@
         <v>890</v>
       </c>
       <c r="I15" s="7">
-        <v>992248</v>
+        <v>992247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>102</v>
@@ -10295,7 +10295,7 @@
         <v>390</v>
       </c>
       <c r="I43" s="7">
-        <v>402173</v>
+        <v>402172</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>812</v>
@@ -10703,7 +10703,7 @@
         <v>3319</v>
       </c>
       <c r="I51" s="7">
-        <v>3524000</v>
+        <v>3523999</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>102</v>
